--- a/medicine/Enfance/Pascale_Ferroul/Pascale_Ferroul.xlsx
+++ b/medicine/Enfance/Pascale_Ferroul/Pascale_Ferroul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascale Ferroul, née le 12 octobre 1965 à Montpellier, est une femme de lettres française, auteure de roman policier.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Plus petit que moi tu meurs, HB, 2004  (ISBN 2-914581-23-8)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plus petit que moi tu meurs, HB, 2004  (ISBN 2-914581-23-8)
 Ne rend pas la monnaie, HB, 2005  (ISBN 2-914581-45-9)
-David sur ordonnance, Actes Sud, coll. « Babel noir » no 4, 2006  (ISBN 2-7427-5902-6)
-Littérature d'enfance et de jeunesse
-Un ange passe et ricane, Oskar, coll. « Junior », 2010  (ISBN 978-2-35000-540-9)</t>
+David sur ordonnance, Actes Sud, coll. « Babel noir » no 4, 2006  (ISBN 2-7427-5902-6)</t>
         </is>
       </c>
     </row>
@@ -569,13 +586,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un ange passe et ricane, Oskar, coll. « Junior », 2010  (ISBN 978-2-35000-540-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pascale_Ferroul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascale_Ferroul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix SNCF du premier polar 2005 pour Plus petit que moi tu meurs[1]</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix SNCF du premier polar 2005 pour Plus petit que moi tu meurs</t>
         </is>
       </c>
     </row>
